--- a/source/sentence-codetection/generation-avg-similarity-matrix-new20150702.xlsx
+++ b/source/sentence-codetection/generation-avg-similarity-matrix-new20150702.xlsx
@@ -418,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:AX59"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="A34" activeCellId="0" pane="topLeft" sqref="34:34"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
+      <selection activeCell="K56" activeCellId="0" pane="topLeft" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5186,7 +5186,7 @@
         <v>0.3380204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.9" outlineLevel="0" r="34">
       <c r="B34" s="0" t="n">
         <v>5</v>
       </c>
